--- a/config_12.28/shoping_config_vivo.xlsx
+++ b/config_12.28/shoping_config_vivo.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6202" uniqueCount="2212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6214" uniqueCount="2218">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8584,6 +8584,30 @@
   </si>
   <si>
     <t>"jing_bi","jing_bi","prop_tiny_game_coin","jing_bi",</t>
+  </si>
+  <si>
+    <t>新年福利</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"880万金币",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>8800000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -11603,13 +11627,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO788"/>
+  <dimension ref="A1:AO790"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="M665" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="M779" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A671" sqref="A671:XFD682"/>
+      <selection pane="bottomRight" activeCell="A789" sqref="A789:XFD790"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -63069,6 +63093,136 @@
         <v>1</v>
       </c>
     </row>
+    <row r="789" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A789" s="21">
+        <v>788</v>
+      </c>
+      <c r="B789" s="30">
+        <v>10705</v>
+      </c>
+      <c r="F789" s="30">
+        <v>1</v>
+      </c>
+      <c r="G789" s="30" t="s">
+        <v>2212</v>
+      </c>
+      <c r="K789" s="30" t="s">
+        <v>2213</v>
+      </c>
+      <c r="M789" s="30">
+        <v>-31</v>
+      </c>
+      <c r="N789" s="30">
+        <v>0</v>
+      </c>
+      <c r="O789" s="30">
+        <v>0</v>
+      </c>
+      <c r="P789" s="30" t="s">
+        <v>2214</v>
+      </c>
+      <c r="Q789" s="30">
+        <v>19800</v>
+      </c>
+      <c r="R789" s="30" t="s">
+        <v>2215</v>
+      </c>
+      <c r="S789" s="54" t="s">
+        <v>2216</v>
+      </c>
+      <c r="X789" s="30" t="s">
+        <v>2217</v>
+      </c>
+      <c r="Y789" s="30">
+        <v>99999999</v>
+      </c>
+      <c r="Z789" s="30">
+        <v>1640649600</v>
+      </c>
+      <c r="AA789" s="30">
+        <v>1641225599</v>
+      </c>
+      <c r="AB789" s="30">
+        <v>96</v>
+      </c>
+      <c r="AI789" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ789" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM789" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN789" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A790" s="21">
+        <v>789</v>
+      </c>
+      <c r="B790" s="30">
+        <v>10706</v>
+      </c>
+      <c r="F790" s="30">
+        <v>1</v>
+      </c>
+      <c r="G790" s="30" t="s">
+        <v>2212</v>
+      </c>
+      <c r="K790" s="30" t="s">
+        <v>2213</v>
+      </c>
+      <c r="M790" s="30">
+        <v>-31</v>
+      </c>
+      <c r="N790" s="30">
+        <v>0</v>
+      </c>
+      <c r="O790" s="30">
+        <v>0</v>
+      </c>
+      <c r="P790" s="30" t="s">
+        <v>2214</v>
+      </c>
+      <c r="Q790" s="30">
+        <v>40000</v>
+      </c>
+      <c r="R790" s="30" t="s">
+        <v>2215</v>
+      </c>
+      <c r="S790" s="54" t="s">
+        <v>2216</v>
+      </c>
+      <c r="X790" s="30" t="s">
+        <v>2217</v>
+      </c>
+      <c r="Y790" s="30">
+        <v>99999999</v>
+      </c>
+      <c r="Z790" s="30">
+        <v>1640649600</v>
+      </c>
+      <c r="AA790" s="30">
+        <v>1641225599</v>
+      </c>
+      <c r="AB790" s="30">
+        <v>96</v>
+      </c>
+      <c r="AI790" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ790" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM790" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN790" s="30">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="H738:H749"/>

--- a/config_12.28/shoping_config_vivo.xlsx
+++ b/config_12.28/shoping_config_vivo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6214" uniqueCount="2218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6220" uniqueCount="2221">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8607,6 +8607,18 @@
   </si>
   <si>
     <t>9999999999,1,0</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopping_center_can_show_v6</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>condi_key|显示权限</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopping_center_can_show_v6</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -9598,10 +9610,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG32"/>
+  <dimension ref="A1:AH32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AF16" sqref="AF16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9634,7 +9646,7 @@
     <col min="34" max="16384" width="8.75" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" s="1" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9734,8 +9746,11 @@
       <c r="AG1" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH1" s="1" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -9818,7 +9833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -9901,7 +9916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -9984,7 +9999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -10069,7 +10084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -10154,7 +10169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -10239,7 +10254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -10322,7 +10337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -10405,8 +10420,11 @@
       <c r="AE9" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH9" s="12" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -10489,8 +10507,11 @@
       <c r="AE10" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH10" s="12" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -10574,7 +10595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -10656,7 +10677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -10738,7 +10759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -10820,7 +10841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -10902,7 +10923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -11629,11 +11650,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO790"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="M779" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="V779" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A789" sqref="A789:XFD790"/>
+      <selection pane="bottomRight" activeCell="F807" sqref="F807"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -63134,7 +63155,7 @@
         <v>2217</v>
       </c>
       <c r="Y789" s="30">
-        <v>99999999</v>
+        <v>200</v>
       </c>
       <c r="Z789" s="30">
         <v>1640649600</v>
@@ -64614,10 +64635,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC27"/>
+  <dimension ref="A1:AD27"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:Q25"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AD14" sqref="AD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -64645,7 +64666,7 @@
     <col min="30" max="16384" width="8.75" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" s="1" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1745</v>
       </c>
@@ -64733,8 +64754,11 @@
       <c r="AC1" s="1" t="s">
         <v>1752</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD1" s="1" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -64802,7 +64826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -64870,7 +64894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -64938,7 +64962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -65006,7 +65030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -65074,7 +65098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -65142,7 +65166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -65207,7 +65231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -65280,7 +65304,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -65353,7 +65377,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -65418,7 +65442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -65486,7 +65510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -65553,8 +65577,11 @@
       <c r="Z13" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD13" s="12" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -65621,8 +65648,11 @@
       <c r="Z14" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD14" s="12" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -65697,7 +65727,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>15</v>
       </c>
